--- a/error_scores/error_scores_hayes-roth.xlsx
+++ b/error_scores/error_scores_hayes-roth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>PBFI FuzzyCMeans</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>SHAP KMeans</t>
-  </si>
-  <si>
-    <t>PFBI FuzzyCMeans</t>
   </si>
 </sst>
 </file>
@@ -386,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,14 +402,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -422,13 +419,13 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.575</v>
       </c>
       <c r="C3">
         <v>0.575</v>
@@ -439,14 +436,14 @@
       <c r="E3">
         <v>0.725</v>
       </c>
-      <c r="F3">
-        <v>0.575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.44375</v>
+      </c>
       <c r="C4">
         <v>0.44375</v>
       </c>
@@ -456,14 +453,14 @@
       <c r="E4">
         <v>0.50625</v>
       </c>
-      <c r="F4">
-        <v>0.44375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0.3</v>
+      </c>
       <c r="C5">
         <v>0.3</v>
       </c>
@@ -473,14 +470,14 @@
       <c r="E5">
         <v>0.48125</v>
       </c>
-      <c r="F5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
       <c r="C6">
         <v>0.3</v>
       </c>
@@ -489,9 +486,6 @@
       </c>
       <c r="E6">
         <v>0.48125</v>
-      </c>
-      <c r="F6">
-        <v>0.3</v>
       </c>
     </row>
   </sheetData>
